--- a/dataproject/data_u.xlsx
+++ b/dataproject/data_u.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karenthulejensen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumni-my.sharepoint.com/personal/hms467_ku_dk/Documents/Documents/Arbejde/Undervisning/INPA2/Github/Groups/projects-2021-aristochats/dataproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A8AF98-8ED0-9A46-A26B-D83BD42677AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="460" windowWidth="27640" windowHeight="15960" xr2:uid="{8E166FAB-116E-C84D-8B27-45061DB366C8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{8E166FAB-116E-C84D-8B27-45061DB366C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2543,12 +2543,12 @@
   <dimension ref="A1:F379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F379"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>5</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>5</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>5</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>5</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>5</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>5</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>5</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>5</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>5</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>5</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>5</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>5</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>5</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>5</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>5</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>5</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>5</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>60</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>60</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>60</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>60</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>60</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>60</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>60</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>60</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>60</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>60</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>60</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>60</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>60</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>60</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>60</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>60</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>60</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>60</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>60</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>60</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>60</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>60</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>60</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>60</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>60</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>60</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>60</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>60</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>60</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>60</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>60</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>60</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>60</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>60</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>60</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>60</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>60</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>60</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>60</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>60</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>60</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>60</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>60</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>60</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>60</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>60</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>60</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>60</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>60</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>60</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>60</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>61</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>61</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>61</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>61</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>61</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>61</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>61</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>61</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>61</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>61</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>61</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>61</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>61</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>61</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>61</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>61</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>61</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>61</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>61</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>61</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>61</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>61</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>61</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>61</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>61</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>61</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>61</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>61</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>61</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>61</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>61</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>61</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>61</v>
       </c>
@@ -5388,7 +5388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>61</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>61</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>61</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>61</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>61</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>61</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>61</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>61</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>61</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>61</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="8" t="s">
         <v>61</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
         <v>61</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="8" t="s">
         <v>61</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
         <v>61</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>61</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>61</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>61</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>61</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>61</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>61</v>
       </c>
@@ -5780,7 +5780,7 @@
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>61</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>62</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>62</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>62</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>62</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>62</v>
       </c>
@@ -5892,7 +5892,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>62</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>62</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>62</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>62</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>62</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>62</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>62</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>62</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>62</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>62</v>
       </c>
@@ -6092,7 +6092,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>62</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>62</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>62</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>62</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>62</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>62</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>62</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>62</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>62</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>62</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>62</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>62</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>62</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>62</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>62</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>62</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>62</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>62</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>62</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>62</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>62</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>62</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>62</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>62</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>62</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>62</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>62</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>62</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>62</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>62</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>62</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>62</v>
       </c>
@@ -6732,7 +6732,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>62</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>62</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>62</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>62</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>62</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>62</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>62</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>63</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>63</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>63</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>63</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>63</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>63</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>63</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>63</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>63</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>63</v>
       </c>
@@ -7066,7 +7066,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>63</v>
       </c>
@@ -7086,7 +7086,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>63</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>63</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>63</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>63</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>63</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>63</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>63</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>63</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>63</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>63</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>63</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>63</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>63</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>63</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>63</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>63</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>63</v>
       </c>
@@ -7426,7 +7426,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>63</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>63</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>63</v>
       </c>
@@ -7486,7 +7486,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>63</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>63</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>63</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>63</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>63</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>63</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>63</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>63</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>63</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>63</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>63</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>63</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>63</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>63</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>63</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>63</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>63</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>63</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>63</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>63</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>63</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>63</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>63</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>64</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>64</v>
       </c>
@@ -7986,7 +7986,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>64</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>64</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="9" t="s">
         <v>64</v>
       </c>
@@ -8046,7 +8046,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="9" t="s">
         <v>64</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="9" t="s">
         <v>64</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="9" t="s">
         <v>64</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="9" t="s">
         <v>64</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="9" t="s">
         <v>64</v>
       </c>
@@ -8146,7 +8146,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="9" t="s">
         <v>64</v>
       </c>
@@ -8166,7 +8166,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="9" t="s">
         <v>64</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="9" t="s">
         <v>64</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="9" t="s">
         <v>64</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
         <v>64</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="9" t="s">
         <v>64</v>
       </c>
@@ -8266,7 +8266,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="9" t="s">
         <v>64</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="9" t="s">
         <v>64</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="9" t="s">
         <v>64</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="9" t="s">
         <v>64</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="9" t="s">
         <v>64</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="9" t="s">
         <v>64</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="9" t="s">
         <v>64</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
         <v>64</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="9" t="s">
         <v>64</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
         <v>64</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="9" t="s">
         <v>64</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="9" t="s">
         <v>64</v>
       </c>
@@ -8506,7 +8506,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="9" t="s">
         <v>64</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="9" t="s">
         <v>64</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="9" t="s">
         <v>64</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="9" t="s">
         <v>64</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="9" t="s">
         <v>64</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="9" t="s">
         <v>64</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="9" t="s">
         <v>64</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="9" t="s">
         <v>64</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="9" t="s">
         <v>64</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="9" t="s">
         <v>64</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="9" t="s">
         <v>64</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="9" t="s">
         <v>64</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="9" t="s">
         <v>64</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="9" t="s">
         <v>64</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="9" t="s">
         <v>64</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="9" t="s">
         <v>64</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="9" t="s">
         <v>64</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="9" t="s">
         <v>64</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="9" t="s">
         <v>64</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="9" t="s">
         <v>64</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="9" t="s">
         <v>64</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="9" t="s">
         <v>64</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="9" t="s">
         <v>64</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="9" t="s">
         <v>64</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="9" t="s">
         <v>64</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="9" t="s">
         <v>64</v>
       </c>
@@ -9026,7 +9026,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="9" t="s">
         <v>65</v>
       </c>
@@ -9046,7 +9046,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="9" t="s">
         <v>65</v>
       </c>
@@ -9066,7 +9066,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="9" t="s">
         <v>65</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="9" t="s">
         <v>65</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="9" t="s">
         <v>65</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="9" t="s">
         <v>65</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="9" t="s">
         <v>65</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="9" t="s">
         <v>65</v>
       </c>
@@ -9186,7 +9186,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="9" t="s">
         <v>65</v>
       </c>
@@ -9206,7 +9206,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="9" t="s">
         <v>65</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="9" t="s">
         <v>65</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="9" t="s">
         <v>65</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="9" t="s">
         <v>65</v>
       </c>
@@ -9286,7 +9286,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="9" t="s">
         <v>65</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="9" t="s">
         <v>65</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="9" t="s">
         <v>65</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="9" t="s">
         <v>65</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="9" t="s">
         <v>65</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="9" t="s">
         <v>65</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="9" t="s">
         <v>65</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="9" t="s">
         <v>65</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="9" t="s">
         <v>65</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="9" t="s">
         <v>65</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="9" t="s">
         <v>65</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="9" t="s">
         <v>65</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="9" t="s">
         <v>65</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="9" t="s">
         <v>65</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="9" t="s">
         <v>65</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="9" t="s">
         <v>65</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="9" t="s">
         <v>65</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="9" t="s">
         <v>65</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="9" t="s">
         <v>65</v>
       </c>
@@ -9666,7 +9666,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="9" t="s">
         <v>65</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="9" t="s">
         <v>65</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="9" t="s">
         <v>65</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="9" t="s">
         <v>65</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="9" t="s">
         <v>65</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="9" t="s">
         <v>65</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="9" t="s">
         <v>65</v>
       </c>
@@ -9806,7 +9806,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="9" t="s">
         <v>65</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="9" t="s">
         <v>65</v>
       </c>
@@ -9846,7 +9846,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="9" t="s">
         <v>65</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="9" t="s">
         <v>65</v>
       </c>
@@ -9886,7 +9886,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="9" t="s">
         <v>65</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="9" t="s">
         <v>65</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="9" t="s">
         <v>65</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="9" t="s">
         <v>65</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="9" t="s">
         <v>65</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="9" t="s">
         <v>65</v>
       </c>
@@ -10006,7 +10006,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="9" t="s">
         <v>65</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="9" t="s">
         <v>65</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="9" t="s">
         <v>65</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="9" t="s">
         <v>65</v>
       </c>
@@ -10086,7 +10086,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="9" t="s">
         <v>65</v>
       </c>
